--- a/training/output/CNN/P/P0_P2.xlsx
+++ b/training/output/CNN/P/P0_P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9199561403508771</v>
+        <v>0.52</v>
       </c>
       <c r="B2" t="n">
-        <v>1.668580030140124</v>
+        <v>1.804031640291214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.5941666666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>1.49524630370893</v>
+        <v>1.628211349248886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.6108333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>1.444418359221074</v>
+        <v>1.568252265453339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.6575</v>
       </c>
       <c r="B5" t="n">
-        <v>1.412748395350941</v>
+        <v>1.521001666784286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.6908333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>1.420980984704536</v>
+        <v>1.483935236930847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.415964482123392</v>
+        <v>1.414938777685165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.8041666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.443819305352997</v>
+        <v>1.370286852121353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.8233333333333335</v>
       </c>
       <c r="B9" t="n">
-        <v>1.42453074036983</v>
+        <v>1.32106140255928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8325</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400907177674143</v>
+        <v>1.328306704759598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8375</v>
       </c>
       <c r="B11" t="n">
-        <v>1.430776836579306</v>
+        <v>1.309538811445236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>1.409339785575867</v>
+        <v>1.242046296596527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.417749726981447</v>
+        <v>1.226976484060287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8691666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.409073955134342</v>
+        <v>1.212581008672714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.408987603689495</v>
+        <v>1.221859931945801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.413499093892282</v>
+        <v>1.171787649393082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9175</v>
       </c>
       <c r="B17" t="n">
-        <v>1.398436301632931</v>
+        <v>1.120766490697861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9225000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>1.399172410630343</v>
+        <v>1.100318521261215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9191666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.405417733025133</v>
+        <v>1.05751845240593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9191666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.485187377846032</v>
+        <v>1.04532065987587</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>1.429902503364965</v>
+        <v>1.053981900215149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9025</v>
       </c>
       <c r="B22" t="n">
-        <v>1.424479319338213</v>
+        <v>1.043342456221581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.413475258308545</v>
+        <v>0.9990480542182922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9225</v>
       </c>
       <c r="B24" t="n">
-        <v>1.407974172056767</v>
+        <v>0.9975253939628601</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9175</v>
       </c>
       <c r="B25" t="n">
-        <v>1.410605183818884</v>
+        <v>0.9986478984355927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9283333333333335</v>
       </c>
       <c r="B26" t="n">
-        <v>1.395501517412955</v>
+        <v>0.9512549489736557</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1.397423141881039</v>
+        <v>0.9534304440021515</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9516666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>1.420427389312209</v>
+        <v>0.9286707192659378</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>1.40564571347153</v>
+        <v>0.9373203366994858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>1.400755509995578</v>
+        <v>0.9284320920705795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.404251077718902</v>
+        <v>0.8760294318199158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9175</v>
       </c>
       <c r="B32" t="n">
-        <v>1.407842629834225</v>
+        <v>0.9032124429941177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9291666666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>1.40466408771381</v>
+        <v>0.9694939255714417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9283333333333335</v>
       </c>
       <c r="B34" t="n">
-        <v>1.405538512949358</v>
+        <v>0.8847001492977142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9358333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.410409582288642</v>
+        <v>0.9200287461280823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.396707582892033</v>
+        <v>0.8779781460762024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9308333333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>1.398298305377626</v>
+        <v>0.8763367533683777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9308333333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.395443211522019</v>
+        <v>0.8545993268489838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9175</v>
       </c>
       <c r="B39" t="n">
-        <v>1.395870823609201</v>
+        <v>0.8740298449993134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B40" t="n">
-        <v>1.392126210948877</v>
+        <v>0.8713656961917877</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.389452915442617</v>
+        <v>0.8682820200920105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1.391297957353425</v>
+        <v>0.8416600525379181</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.390359583653902</v>
+        <v>0.8422866314649582</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9408333333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>1.393099830861677</v>
+        <v>0.8301729559898376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9291666666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.391574903538353</v>
+        <v>0.8299245983362198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1.391204940645318</v>
+        <v>0.8373128622770309</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>1.393115156575253</v>
+        <v>0.8998473137617111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9125</v>
       </c>
       <c r="B48" t="n">
-        <v>1.392603173590543</v>
+        <v>0.9562730938196182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9225</v>
       </c>
       <c r="B49" t="n">
-        <v>1.395352583182486</v>
+        <v>0.8455106914043427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.93</v>
       </c>
       <c r="B50" t="n">
-        <v>1.392406693676062</v>
+        <v>0.8158553391695023</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9475</v>
       </c>
       <c r="B51" t="n">
-        <v>1.392107541101021</v>
+        <v>0.8275692611932755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>1.416833777176706</v>
+        <v>0.8415340632200241</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.402138272921244</v>
+        <v>0.8331140726804733</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407294070511534</v>
+        <v>0.8148667216300964</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1.426508554241114</v>
+        <v>0.8215063363313675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9275</v>
       </c>
       <c r="B56" t="n">
-        <v>1.400574878642433</v>
+        <v>0.8270433992147446</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B57" t="n">
-        <v>1.400643030802409</v>
+        <v>0.7856542319059372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9341666666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.391156593958537</v>
+        <v>0.7995563149452209</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9275</v>
       </c>
       <c r="B59" t="n">
-        <v>1.389856614564595</v>
+        <v>0.8441455960273743</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.448523075957047</v>
+        <v>0.7805582135915756</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9275</v>
       </c>
       <c r="B61" t="n">
-        <v>1.396626171312834</v>
+        <v>0.7717050164937973</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9325</v>
       </c>
       <c r="B62" t="n">
-        <v>1.397762532819781</v>
+        <v>0.7658293545246124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.395203634312278</v>
+        <v>0.7676499933004379</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B64" t="n">
-        <v>1.389479576495656</v>
+        <v>0.7862748354673386</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9341666666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.400844109685798</v>
+        <v>0.7661882638931274</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9291666666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.426716223097684</v>
+        <v>0.7533506453037262</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.395698106079771</v>
+        <v>0.7633057832717896</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9191666666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>1.391844389731424</v>
+        <v>0.864642396569252</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9125</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390473432708205</v>
+        <v>0.8617087453603745</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389780540215342</v>
+        <v>0.8014696538448334</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.428526317864134</v>
+        <v>0.776475802063942</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.395631192023294</v>
+        <v>0.7634039968252182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9241666666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.427636430974592</v>
+        <v>0.7788552194833755</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1.395059550017641</v>
+        <v>1.10617870092392</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.400645210031878</v>
+        <v>0.937380462884903</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390580166850174</v>
+        <v>0.8292305320501328</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9408333333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>1.392505007877684</v>
+        <v>0.8209543377161026</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.397686606959293</v>
+        <v>0.7802198082208633</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9433333333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>1.390745790381181</v>
+        <v>0.7898551374673843</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.95</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390276178979037</v>
+        <v>0.7769626080989838</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.432235811886035</v>
+        <v>0.7742958217859268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.417588650134572</v>
+        <v>0.7585042268037796</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3964646176288</v>
+        <v>0.7577994018793106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.438524869450352</v>
+        <v>0.7759346067905426</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391723137152822</v>
+        <v>0.7696859687566757</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.405148133896945</v>
+        <v>0.7697748243808746</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B87" t="n">
-        <v>1.397655267464487</v>
+        <v>0.7624571770429611</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9316666666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.445306330396418</v>
+        <v>0.7528089731931686</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.398731804730599</v>
+        <v>0.7362343072891235</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>1.409026442912587</v>
+        <v>0.7493880093097687</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.394028820489582</v>
+        <v>0.7769776433706284</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389340402787192</v>
+        <v>0.7567100375890732</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B93" t="n">
-        <v>1.393387137797841</v>
+        <v>0.7373560518026352</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>1.389574883276956</v>
+        <v>0.7475205212831497</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9433333333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.412298081213968</v>
+        <v>0.7448510378599167</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>1.391548997477481</v>
+        <v>0.7523486763238907</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9383333333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.405046140938474</v>
+        <v>0.7755555659532547</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9275</v>
       </c>
       <c r="B98" t="n">
-        <v>1.413476734830622</v>
+        <v>0.7561545521020889</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9341666666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.42592077715355</v>
+        <v>0.7341964244842529</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>1.429141791243302</v>
+        <v>0.7322078943252563</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>1.397602802828739</v>
+        <v>0.7352536469697952</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7305285036563873</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9266666666666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7372446358203888</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.731904536485672</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.736526295542717</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7222124338150024</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9316666666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7285340875387192</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9341666666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7240767776966095</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9341666666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.724322110414505</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9291666666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.738471120595932</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7301829308271408</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7260095924139023</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7274205982685089</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7232035845518112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7245291769504547</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7273419499397278</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7368655204772949</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7196463197469711</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7215403318405151</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9341666666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7390837818384171</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7219727337360382</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7253459692001343</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7215835601091385</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7174750417470932</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.726414680480957</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7340005040168762</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.729652538895607</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7275696843862534</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7244677245616913</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.719977393746376</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7161218822002411</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7152919173240662</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7148738950490952</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7273294925689697</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7198131680488586</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.722228929400444</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7283173203468323</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7171987146139145</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.716152235865593</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7273116260766983</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7301580011844635</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7178968787193298</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7227716147899628</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7288135439157486</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7175708562135696</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7189352214336395</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7257419526576996</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7223068922758102</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7298750430345535</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.72323077917099</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8566311895847321</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9249999999999999</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7699198424816132</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7317708730697632</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7487175315618515</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7194822728633881</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7239333838224411</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7212849259376526</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7254459857940674</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7144245952367783</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7381119877099991</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7142913043498993</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7166091054677963</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7211863100528717</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7162947356700897</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7153929769992828</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7146628350019455</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.714414045214653</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7210734188556671</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7366607934236526</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7166789919137955</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7320979684591293</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7171365916728973</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7371086925268173</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7244960963726044</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7141032218933105</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7110074013471603</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7292232662439346</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.72513248026371</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7162261009216309</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7151083499193192</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.711921438574791</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7195524722337723</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7230354100465775</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9416666666666665</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7238805890083313</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7194977700710297</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7149037420749664</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7175708711147308</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7154871970415115</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7242121398448944</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7180580645799637</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7131926715373993</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7209319621324539</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7197169959545135</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9441666666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7124515026807785</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7158023566007614</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9391666666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.714826911687851</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7201116383075714</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7239831537008286</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7170140892267227</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7163541167974472</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9341666666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7113417983055115</v>
       </c>
     </row>
   </sheetData>
